--- a/test/templates/multple-sheets-arrays.xlsx
+++ b/test/templates/multple-sheets-arrays.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A175131-6E32-4974-8713-F7E6139B1E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="-20" windowWidth="29000" windowHeight="20300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +26,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>${page}</t>
+    <t>{page}</t>
   </si>
   <si>
-    <t>Page ${sheetNumber}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page ${sheetNumber}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Page {sheetNumber}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -82,6 +83,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,22 +413,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr published="0"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="12">
+    <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -436,24 +445,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr published="0"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="12">
+    <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
